--- a/Sprint 1 Documentation/SprintBacklog.xlsx
+++ b/Sprint 1 Documentation/SprintBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_6f\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_6dd\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF322CD-2D02-41D9-9553-610B026E04BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA26BF87-E9E5-48BF-B477-F972977A9FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -121,115 +121,118 @@
     <t>Add validation for input</t>
   </si>
   <si>
+    <t>AG, AI</t>
+  </si>
+  <si>
+    <t>2. As a customer, I can search based on procedure</t>
+  </si>
+  <si>
+    <t>3. As a customer, I can search based on location</t>
+  </si>
+  <si>
+    <t>Create multiple search bars on webpage allowing user input</t>
+  </si>
+  <si>
+    <t>Access the device's co-ordinates to enable a LIVE Location search</t>
+  </si>
+  <si>
+    <t>WM, AI, AR</t>
+  </si>
+  <si>
+    <t>28/1/2020</t>
+  </si>
+  <si>
+    <t>Assign co-ordinates to all providers in the database</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>8. As a customer, I can view search results in a list</t>
+  </si>
+  <si>
+    <t>Create results page for website to return list</t>
+  </si>
+  <si>
+    <t>Return list from database</t>
+  </si>
+  <si>
+    <t>9. As a customer, I can view search results on a map</t>
+  </si>
+  <si>
+    <t>Research map API functionality</t>
+  </si>
+  <si>
+    <t>AR, WM,AI</t>
+  </si>
+  <si>
+    <t>AI,WM</t>
+  </si>
+  <si>
+    <t>Return results from database, nearest to location</t>
+  </si>
+  <si>
+    <t>12. As a customer, I can view details of a search result in the list</t>
+  </si>
+  <si>
+    <t>Access a further details page on a specific search result (button call)</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Return full set of details on a specific provider ID from DB</t>
+  </si>
+  <si>
+    <t>4. As a customer, I can sort search results based on price</t>
+  </si>
+  <si>
+    <t>Sort by button option on UI (API call)</t>
+  </si>
+  <si>
+    <t>Return list from database in order of price</t>
+  </si>
+  <si>
+    <t>6. As a customer, I can sort search results based on location</t>
+  </si>
+  <si>
+    <t>Sort by location button on UI (API call)</t>
+  </si>
+  <si>
+    <t>Return list from database in order of distance from address</t>
+  </si>
+  <si>
+    <t>13. As a customer, I can view details of a search result on a map</t>
+  </si>
+  <si>
+    <t>10. As a customer, I can set a price range for my search</t>
+  </si>
+  <si>
+    <t>Price range option on UI</t>
+  </si>
+  <si>
+    <t>AI, AG</t>
+  </si>
+  <si>
+    <t>Return list from database between a price range</t>
+  </si>
+  <si>
+    <t>11. As a customer, I can set a distance range for my search</t>
+  </si>
+  <si>
+    <t>Distance range option on UI</t>
+  </si>
+  <si>
+    <t>Return list from database between a distance range</t>
+  </si>
+  <si>
+    <t>16. As a customer, I can view service provider information page</t>
+  </si>
+  <si>
+    <t>Design CraneWare contact page</t>
+  </si>
+  <si>
     <t>AG</t>
-  </si>
-  <si>
-    <t>2. As a customer, I can search based on procedure</t>
-  </si>
-  <si>
-    <t>3. As a customer, I can search based on location</t>
-  </si>
-  <si>
-    <t>Create multiple search bars on webpage allowing user input</t>
-  </si>
-  <si>
-    <t>AG, AI</t>
-  </si>
-  <si>
-    <t>Access the device's co-ordinates to enable a LIVE Location search</t>
-  </si>
-  <si>
-    <t>WM, AI, AR</t>
-  </si>
-  <si>
-    <t>28/1/2020</t>
-  </si>
-  <si>
-    <t>Assign co-ordinates to all providers in the database</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>8. As a customer, I can view search results in a list</t>
-  </si>
-  <si>
-    <t>Create results page for website to return list</t>
-  </si>
-  <si>
-    <t>Return list from database</t>
-  </si>
-  <si>
-    <t>9. As a customer, I can view search results on a map</t>
-  </si>
-  <si>
-    <t>Research map API functionality</t>
-  </si>
-  <si>
-    <t>AR, WM,AI</t>
-  </si>
-  <si>
-    <t>Return results from database, nearest to location</t>
-  </si>
-  <si>
-    <t>12. As a customer, I can view details of a search result in the list</t>
-  </si>
-  <si>
-    <t>Access a further details page on a specific search result (button call)</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Return full set of details on a specific provider ID from DB</t>
-  </si>
-  <si>
-    <t>4. As a customer, I can sort search results based on price</t>
-  </si>
-  <si>
-    <t>Sort by button option on UI (API call)</t>
-  </si>
-  <si>
-    <t>Return list from database in order of price</t>
-  </si>
-  <si>
-    <t>6. As a customer, I can sort search results based on location</t>
-  </si>
-  <si>
-    <t>Sort by location button on UI (API call)</t>
-  </si>
-  <si>
-    <t>Return list from database in order of distance from address</t>
-  </si>
-  <si>
-    <t>13. As a customer, I can view details of a search result on a map</t>
-  </si>
-  <si>
-    <t>10. As a customer, I can set a price range for my search</t>
-  </si>
-  <si>
-    <t>Price range option on UI</t>
-  </si>
-  <si>
-    <t>AI, AG</t>
-  </si>
-  <si>
-    <t>Return list from database between a price range</t>
-  </si>
-  <si>
-    <t>11. As a customer, I can set a distance range for my search</t>
-  </si>
-  <si>
-    <t>Distance range option on UI</t>
-  </si>
-  <si>
-    <t>Return list from database between a distance range</t>
-  </si>
-  <si>
-    <t>16. As a customer, I can view service provider information page</t>
-  </si>
-  <si>
-    <t>Design CraneWare contact page</t>
   </si>
   <si>
     <t>7. As a customer, I can sort search results based on "best match"</t>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,6 +761,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -781,6 +787,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
@@ -813,6 +822,9 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -836,6 +848,9 @@
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -859,6 +874,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -882,6 +900,9 @@
       <c r="H9">
         <v>2</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
@@ -894,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -907,6 +928,9 @@
       </c>
       <c r="H10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -943,6 +967,9 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" t="s">
@@ -967,6 +994,9 @@
       <c r="H13" s="5">
         <v>2</v>
       </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -990,6 +1020,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
@@ -1013,6 +1046,9 @@
       <c r="H15">
         <v>2</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="L15" t="s">
         <v>27</v>
       </c>
@@ -1030,10 +1066,10 @@
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
@@ -1046,14 +1082,17 @@
       </c>
       <c r="H17" s="5">
         <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1">
       <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>16</v>
@@ -1070,8 +1109,11 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
       <c r="L18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1">
@@ -1096,13 +1138,16 @@
       <c r="H19" s="5">
         <v>2</v>
       </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1">
       <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
@@ -1117,6 +1162,9 @@
         <v>3</v>
       </c>
       <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1142,6 +1190,9 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
@@ -1165,13 +1216,16 @@
       <c r="H22">
         <v>3</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="L22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
@@ -1179,10 +1233,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -1198,6 +1252,9 @@
       </c>
       <c r="H24">
         <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1222,10 +1279,13 @@
       <c r="H25">
         <v>2</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -1243,6 +1303,9 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
     </row>
@@ -1268,13 +1331,16 @@
       <c r="H27">
         <v>0.5</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
         <v>8</v>
@@ -1282,10 +1348,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -1300,6 +1366,9 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
@@ -1308,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -1324,6 +1393,9 @@
       </c>
       <c r="H30">
         <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1348,6 +1420,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
@@ -1371,6 +1446,9 @@
       <c r="H32">
         <v>0.5</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="L32" t="s">
         <v>27</v>
       </c>
@@ -1402,6 +1480,9 @@
       <c r="H34">
         <v>2</v>
       </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
@@ -1425,6 +1506,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
@@ -1439,7 +1523,7 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1454,6 +1538,9 @@
         <v>2</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>2</v>
       </c>
     </row>
@@ -1479,6 +1566,9 @@
       <c r="H38">
         <v>2</v>
       </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
@@ -1502,6 +1592,9 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="L39" t="s">
         <v>27</v>
       </c>
@@ -1519,7 +1612,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1534,6 +1627,9 @@
         <v>2</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
     </row>
@@ -1545,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1557,6 +1653,9 @@
         <v>2</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
@@ -1582,6 +1681,9 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
       <c r="L43" t="s">
         <v>27</v>
       </c>
@@ -1613,6 +1715,9 @@
       <c r="H45">
         <v>2</v>
       </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
@@ -1622,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1634,6 +1739,9 @@
         <v>1</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
@@ -1667,11 +1775,17 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>20</v>
       </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1685,6 +1799,9 @@
         <v>2</v>
       </c>
       <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
     </row>
@@ -1710,6 +1827,9 @@
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
@@ -1767,11 +1887,17 @@
       <c r="H53">
         <v>0</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>20</v>
       </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
       <c r="D54" s="3" t="s">
         <v>48</v>
       </c>
@@ -1785,6 +1911,9 @@
         <v>2</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>2</v>
       </c>
     </row>
@@ -1810,6 +1939,9 @@
       <c r="H55">
         <v>0</v>
       </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
@@ -1833,6 +1965,9 @@
       <c r="H56">
         <v>2</v>
       </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
       <c r="L56" t="s">
         <v>27</v>
       </c>
@@ -1850,7 +1985,7 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -1865,6 +2000,9 @@
         <v>0</v>
       </c>
       <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>0</v>
       </c>
     </row>
@@ -1873,7 +2011,7 @@
         <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1890,10 +2028,13 @@
       <c r="H59">
         <v>1</v>
       </c>
+      <c r="I59">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -1901,7 +2042,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -1921,13 +2062,16 @@
       <c r="H61">
         <v>0</v>
       </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1944,10 +2088,13 @@
       <c r="H62">
         <v>0.5</v>
       </c>
+      <c r="I62">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
         <v>48</v>
@@ -1962,6 +2109,9 @@
         <v>2</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>2</v>
       </c>
     </row>
@@ -1987,13 +2137,16 @@
       <c r="H64">
         <v>2</v>
       </c>
+      <c r="I64">
+        <v>2</v>
+      </c>
       <c r="L64" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="9" customFormat="1">
       <c r="A65" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" ref="E65:J65" si="0">SUM(E3:E63)</f>
@@ -2013,7 +2166,7 @@
       </c>
       <c r="I65" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" si="0"/>
@@ -2086,10 +2239,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2121,7 +2274,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2136,7 +2289,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2154,7 +2307,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2169,7 +2322,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2184,7 +2337,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2199,7 +2352,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/Sprint 1 Documentation/SprintBacklog.xlsx
+++ b/Sprint 1 Documentation/SprintBacklog.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_6dd\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_308f\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA26BF87-E9E5-48BF-B477-F972977A9FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89044333-C197-4444-8ADA-8339131004B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Sprint 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="82">
   <si>
     <t>Backlog Task &amp; ID</t>
   </si>
@@ -253,13 +253,31 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Backlog task &amp; ID</t>
-  </si>
-  <si>
-    <t>Story points</t>
-  </si>
-  <si>
-    <t>User Story #</t>
+    <t>12. As a customer, I can view further details of a search result in the list</t>
+  </si>
+  <si>
+    <t>13. As a customer, I can view further details of a search result on a map</t>
+  </si>
+  <si>
+    <t>17. As an admin, I can login to an admin account</t>
+  </si>
+  <si>
+    <t>19. As an admin, I can add a new medical centre</t>
+  </si>
+  <si>
+    <t>20. As an admin, I can remove a medical centre</t>
+  </si>
+  <si>
+    <t>18. As an admin, I can edit details of a medical centre</t>
+  </si>
+  <si>
+    <t>7. As a customer, I can sort search results based on "best match"</t>
+  </si>
+  <si>
+    <t>5. As a customer, I can sort search results based on rating</t>
+  </si>
+  <si>
+    <t>15. As a customer, I can rate a medical centre</t>
   </si>
 </sst>
 </file>
@@ -675,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,6 +782,12 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
@@ -790,6 +814,12 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
@@ -825,6 +855,12 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -851,6 +887,12 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
@@ -877,6 +919,12 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -903,6 +951,12 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9" t="s">
         <v>27</v>
       </c>
@@ -932,6 +986,12 @@
       <c r="I10">
         <v>0</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
       <c r="L10" t="s">
         <v>27</v>
       </c>
@@ -970,6 +1030,12 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" t="s">
@@ -997,6 +1063,12 @@
       <c r="I13" s="5">
         <v>1</v>
       </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
@@ -1023,6 +1095,12 @@
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
@@ -1049,6 +1127,12 @@
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15" t="s">
         <v>27</v>
       </c>
@@ -1086,6 +1170,12 @@
       <c r="I17" s="5">
         <v>0</v>
       </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1">
       <c r="A18" s="4" t="s">
@@ -1112,6 +1202,12 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
       <c r="L18" s="5" t="s">
         <v>35</v>
       </c>
@@ -1141,6 +1237,12 @@
       <c r="I19" s="5">
         <v>1</v>
       </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1">
       <c r="A20" s="4" t="s">
@@ -1167,6 +1269,12 @@
       <c r="I20" s="5">
         <v>0</v>
       </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
@@ -1193,6 +1301,12 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
@@ -1219,6 +1333,12 @@
       <c r="I22">
         <v>1</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22" t="s">
         <v>27</v>
       </c>
@@ -1256,6 +1376,12 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
@@ -1282,6 +1408,12 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
@@ -1308,6 +1440,12 @@
       <c r="I26">
         <v>0</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
@@ -1334,6 +1472,12 @@
       <c r="I27">
         <v>0</v>
       </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
@@ -1371,6 +1515,12 @@
       <c r="I29">
         <v>0</v>
       </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
@@ -1397,6 +1547,12 @@
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
@@ -1423,6 +1579,12 @@
       <c r="I31">
         <v>0</v>
       </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
@@ -1449,6 +1611,12 @@
       <c r="I32">
         <v>0</v>
       </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
       <c r="L32" t="s">
         <v>27</v>
       </c>
@@ -1483,6 +1651,12 @@
       <c r="I34">
         <v>2</v>
       </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
@@ -1509,6 +1683,12 @@
       <c r="I35">
         <v>0</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1">
       <c r="A36" s="1" t="s">
@@ -1543,6 +1723,12 @@
       <c r="I37">
         <v>2</v>
       </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
@@ -1569,6 +1755,12 @@
       <c r="I38">
         <v>2</v>
       </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
@@ -1595,6 +1787,12 @@
       <c r="I39">
         <v>1</v>
       </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39" t="s">
         <v>27</v>
       </c>
@@ -1632,6 +1830,12 @@
       <c r="I41">
         <v>2</v>
       </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
@@ -1658,6 +1862,12 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
@@ -1684,6 +1894,12 @@
       <c r="I43">
         <v>1</v>
       </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="L43" t="s">
         <v>27</v>
       </c>
@@ -1718,6 +1934,12 @@
       <c r="I45">
         <v>2</v>
       </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
@@ -1744,6 +1966,12 @@
       <c r="I46">
         <v>0</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:12" s="1" customFormat="1">
       <c r="A47" s="1" t="s">
@@ -1778,6 +2006,12 @@
       <c r="I48">
         <v>0</v>
       </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
@@ -1804,6 +2038,12 @@
       <c r="I49">
         <v>2</v>
       </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
@@ -1830,6 +2070,12 @@
       <c r="I50">
         <v>0</v>
       </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
@@ -1853,6 +2099,15 @@
       <c r="H51">
         <v>2</v>
       </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
       <c r="L51" t="s">
         <v>27</v>
       </c>
@@ -1890,6 +2145,12 @@
       <c r="I53">
         <v>0</v>
       </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
@@ -1916,6 +2177,12 @@
       <c r="I54">
         <v>2</v>
       </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
@@ -1942,6 +2209,12 @@
       <c r="I55">
         <v>2</v>
       </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
@@ -1968,6 +2241,12 @@
       <c r="I56">
         <v>2</v>
       </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
       <c r="L56" t="s">
         <v>27</v>
       </c>
@@ -2005,6 +2284,12 @@
       <c r="I58">
         <v>0</v>
       </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
@@ -2031,6 +2316,12 @@
       <c r="I59">
         <v>0.5</v>
       </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1">
       <c r="A60" s="1" t="s">
@@ -2065,6 +2356,12 @@
       <c r="I61">
         <v>0</v>
       </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
@@ -2091,6 +2388,12 @@
       <c r="I62">
         <v>0.5</v>
       </c>
+      <c r="J62">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
@@ -2114,6 +2417,12 @@
       <c r="I63">
         <v>2</v>
       </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
@@ -2140,37 +2449,47 @@
       <c r="I64">
         <v>2</v>
       </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
       <c r="L64" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="9" customFormat="1">
+    <row r="65" spans="1:11" s="9" customFormat="1">
       <c r="A65" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="9">
-        <f t="shared" ref="E65:J65" si="0">SUM(E3:E63)</f>
-        <v>121</v>
+        <f>SUM(E3:E64)</f>
+        <v>124</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="0"/>
-        <v>97.5</v>
+        <f t="shared" ref="F65:K65" si="0">SUM(F3:F64)</f>
+        <v>100.5</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H65" s="9">
         <f t="shared" si="0"/>
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="I65" s="9">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5</v>
+      </c>
+      <c r="K65" s="9">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -2191,6 +2510,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14 D16:D19" xr:uid="{5D92ECCF-D082-4234-8C37-5049DCDCBCE7}">
+      <formula1>$A$1:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CC1C6D9-B688-42E2-8DCC-8F90DACC4781}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1 D20 D15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FADEC9-C8B8-40A5-95A5-2AB9A6C409DA}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2219,158 +2799,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0174FFD9-7094-43F7-9D9D-5E73D5FB3BEA}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D17" xr:uid="{5D92ECCF-D082-4234-8C37-5049DCDCBCE7}">
-      <formula1>$A$1:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>